--- a/SchedulingData/dynamic11/pso/scheduling1_14.xlsx
+++ b/SchedulingData/dynamic11/pso/scheduling1_14.xlsx
@@ -462,83 +462,83 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>43.4</v>
+        <v>53.42</v>
       </c>
       <c r="E2" t="n">
-        <v>26.36</v>
+        <v>26.828</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>56.26</v>
+        <v>42.7</v>
       </c>
       <c r="E3" t="n">
-        <v>26.544</v>
+        <v>26.92</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>49.12</v>
+        <v>50.9</v>
       </c>
       <c r="E4" t="n">
-        <v>25.788</v>
+        <v>26.1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>91.3</v>
+        <v>81.64</v>
       </c>
       <c r="E5" t="n">
-        <v>25.52</v>
+        <v>26.516</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -546,13 +546,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>91.3</v>
+        <v>42.7</v>
       </c>
       <c r="D6" t="n">
-        <v>164.3</v>
+        <v>110.3</v>
       </c>
       <c r="E6" t="n">
-        <v>21.36</v>
+        <v>22.76</v>
       </c>
     </row>
     <row r="7">
@@ -561,155 +561,155 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>164.3</v>
+        <v>50.9</v>
       </c>
       <c r="D7" t="n">
-        <v>205.08</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>18.412</v>
+        <v>22.58</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>43.4</v>
+        <v>53.42</v>
       </c>
       <c r="D8" t="n">
-        <v>99.44</v>
+        <v>99.38</v>
       </c>
       <c r="E8" t="n">
-        <v>22.876</v>
+        <v>23.372</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>49.12</v>
+        <v>99.38</v>
       </c>
       <c r="D9" t="n">
-        <v>102.48</v>
+        <v>172.98</v>
       </c>
       <c r="E9" t="n">
-        <v>23.052</v>
+        <v>18.632</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>99.44</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>141.54</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>19.796</v>
+        <v>25.52</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>205.08</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>274.98</v>
+        <v>48.4</v>
       </c>
       <c r="E11" t="n">
-        <v>14.512</v>
+        <v>26.36</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>55</v>
+        <v>122.7</v>
       </c>
       <c r="E12" t="n">
-        <v>25.2</v>
+        <v>21.04</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>141.54</v>
+        <v>172.98</v>
       </c>
       <c r="D13" t="n">
-        <v>212.74</v>
+        <v>227.66</v>
       </c>
       <c r="E13" t="n">
-        <v>15.316</v>
+        <v>14.784</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>87.26000000000001</v>
+        <v>171.6</v>
       </c>
       <c r="E14" t="n">
-        <v>25.944</v>
+        <v>17.78</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -717,298 +717,298 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>87.26000000000001</v>
+        <v>48.4</v>
       </c>
       <c r="D15" t="n">
-        <v>142.68</v>
+        <v>89.12</v>
       </c>
       <c r="E15" t="n">
-        <v>22.512</v>
+        <v>22.928</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>102.48</v>
+        <v>89.12</v>
       </c>
       <c r="D16" t="n">
-        <v>158.88</v>
+        <v>160.58</v>
       </c>
       <c r="E16" t="n">
-        <v>19.532</v>
+        <v>18.872</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>55</v>
+        <v>122.7</v>
       </c>
       <c r="D17" t="n">
-        <v>114.68</v>
+        <v>176.12</v>
       </c>
       <c r="E17" t="n">
-        <v>21.352</v>
+        <v>16.828</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>114.68</v>
+        <v>81.64</v>
       </c>
       <c r="D18" t="n">
-        <v>176.34</v>
+        <v>131.52</v>
       </c>
       <c r="E18" t="n">
-        <v>17.296</v>
+        <v>22.668</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>56.26</v>
+        <v>160.58</v>
       </c>
       <c r="D19" t="n">
-        <v>116.56</v>
+        <v>194.34</v>
       </c>
       <c r="E19" t="n">
-        <v>23.124</v>
+        <v>16.136</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>176.34</v>
+        <v>110.3</v>
       </c>
       <c r="D20" t="n">
-        <v>236.02</v>
+        <v>151.08</v>
       </c>
       <c r="E20" t="n">
-        <v>13.448</v>
+        <v>19.812</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>116.56</v>
+        <v>194.34</v>
       </c>
       <c r="D21" t="n">
-        <v>182.56</v>
+        <v>265.54</v>
       </c>
       <c r="E21" t="n">
-        <v>18.644</v>
+        <v>11.656</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>182.56</v>
+        <v>131.52</v>
       </c>
       <c r="D22" t="n">
-        <v>223.4</v>
+        <v>190.84</v>
       </c>
       <c r="E22" t="n">
-        <v>16.18</v>
+        <v>18.356</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>158.88</v>
+        <v>190.84</v>
       </c>
       <c r="D23" t="n">
-        <v>226.9</v>
+        <v>249.24</v>
       </c>
       <c r="E23" t="n">
-        <v>16.34</v>
+        <v>14.636</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>142.68</v>
+        <v>265.54</v>
       </c>
       <c r="D24" t="n">
-        <v>230.98</v>
+        <v>303.86</v>
       </c>
       <c r="E24" t="n">
-        <v>17.772</v>
+        <v>8.464</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>212.74</v>
+        <v>227.66</v>
       </c>
       <c r="D25" t="n">
-        <v>278.92</v>
+        <v>304.22</v>
       </c>
       <c r="E25" t="n">
-        <v>11.788</v>
+        <v>10.728</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>223.4</v>
+        <v>176.12</v>
       </c>
       <c r="D26" t="n">
-        <v>281.22</v>
+        <v>247.2</v>
       </c>
       <c r="E26" t="n">
-        <v>13.008</v>
+        <v>13.3</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>274.98</v>
+        <v>151.08</v>
       </c>
       <c r="D27" t="n">
-        <v>333.48</v>
+        <v>194.98</v>
       </c>
       <c r="E27" t="n">
-        <v>10.792</v>
+        <v>17.052</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>236.02</v>
+        <v>171.6</v>
       </c>
       <c r="D28" t="n">
-        <v>289.58</v>
+        <v>244.96</v>
       </c>
       <c r="E28" t="n">
-        <v>10.712</v>
+        <v>15.044</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>281.22</v>
+        <v>244.96</v>
       </c>
       <c r="D29" t="n">
-        <v>340.64</v>
+        <v>300.6</v>
       </c>
       <c r="E29" t="n">
-        <v>8.696</v>
+        <v>12.58</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>230.98</v>
+        <v>194.98</v>
       </c>
       <c r="D30" t="n">
-        <v>268.68</v>
+        <v>265.08</v>
       </c>
       <c r="E30" t="n">
-        <v>15.132</v>
+        <v>13.632</v>
       </c>
     </row>
     <row r="31">
@@ -1017,17 +1017,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>268.68</v>
+        <v>249.24</v>
       </c>
       <c r="D31" t="n">
-        <v>307.58</v>
+        <v>301.64</v>
       </c>
       <c r="E31" t="n">
-        <v>12.372</v>
+        <v>11.996</v>
       </c>
     </row>
   </sheetData>
